--- a/ExcelReader.TwilightSaw/db.xlsx
+++ b/ExcelReader.TwilightSaw/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\projects\CodeReviews.Console.ExcelReader\ExcelReader.TwilightSaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B5471-9331-419A-8BCE-DADB982719C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389592D-818A-45EE-AA12-56A5F85114CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="5205" windowWidth="21150" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -36,13 +36,28 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Apple Juice</t>
-  </si>
-  <si>
-    <t>Orange Juice</t>
-  </si>
-  <si>
-    <t>Pomegranade Juice</t>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Milka</t>
+  </si>
+  <si>
+    <t>Milka Daim</t>
+  </si>
+  <si>
+    <t>Lindt</t>
+  </si>
+  <si>
+    <t>Milk Chocolate</t>
+  </si>
+  <si>
+    <t>Fin Carre</t>
+  </si>
+  <si>
+    <t>Almond Milk Chocolate</t>
+  </si>
+  <si>
+    <t>Roshen</t>
   </si>
 </sst>
 </file>
@@ -360,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,38 +393,64 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>5</v>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelReader.TwilightSaw/db.xlsx
+++ b/ExcelReader.TwilightSaw/db.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\projects\CodeReviews.Console.ExcelReader\ExcelReader.TwilightSaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389592D-818A-45EE-AA12-56A5F85114CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B4D248-D8F4-4562-9474-3E9F1AC54615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16020" yWindow="5205" windowWidth="21150" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chocolates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelReader.TwilightSaw/db.xlsx
+++ b/ExcelReader.TwilightSaw/db.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\projects\CodeReviews.Console.ExcelReader\ExcelReader.TwilightSaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B4D248-D8F4-4562-9474-3E9F1AC54615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FEAE9-9E7D-460F-B60E-21B99D4F31A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="5205" windowWidth="21150" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="5205" windowWidth="21150" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chocolates" sheetId="1" r:id="rId1"/>
+    <sheet name="Milk" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -58,12 +59,27 @@
   </si>
   <si>
     <t>Roshen</t>
+  </si>
+  <si>
+    <t>Mlekovita</t>
+  </si>
+  <si>
+    <t>Pilos</t>
+  </si>
+  <si>
+    <t>Milk 3,2%</t>
+  </si>
+  <si>
+    <t>Milk 2,0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -377,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -456,4 +473,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF5164F-A492-43ED-9521-66E18CDFC1C2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelReader.TwilightSaw/db.xlsx
+++ b/ExcelReader.TwilightSaw/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\projects\CodeReviews.Console.ExcelReader\ExcelReader.TwilightSaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FEAE9-9E7D-460F-B60E-21B99D4F31A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1142411F-FD5D-4918-912A-CB364B06999A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="5205" windowWidth="21150" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="1095" windowWidth="21150" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chocolates" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -40,37 +40,22 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Milka</t>
-  </si>
-  <si>
-    <t>Milka Daim</t>
-  </si>
-  <si>
-    <t>Lindt</t>
-  </si>
-  <si>
     <t>Milk Chocolate</t>
   </si>
   <si>
-    <t>Fin Carre</t>
-  </si>
-  <si>
     <t>Almond Milk Chocolate</t>
   </si>
   <si>
-    <t>Roshen</t>
-  </si>
-  <si>
-    <t>Mlekovita</t>
-  </si>
-  <si>
-    <t>Pilos</t>
-  </si>
-  <si>
     <t>Milk 3,2%</t>
   </si>
   <si>
     <t>Milk 2,0%</t>
+  </si>
+  <si>
+    <t>SampleText</t>
+  </si>
+  <si>
+    <t>Dark Chocolate</t>
   </si>
 </sst>
 </file>
@@ -78,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -111,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -394,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +404,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,13 +418,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -461,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -479,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF5164F-A492-43ED-9521-66E18CDFC1C2}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,13 +503,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>3.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelReader.TwilightSaw/db.xlsx
+++ b/ExcelReader.TwilightSaw/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\projects\CodeReviews.Console.ExcelReader\ExcelReader.TwilightSaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1142411F-FD5D-4918-912A-CB364B06999A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640FF5E4-6A2D-450E-803A-FF6895833D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="1095" windowWidth="21150" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Dark Chocolate</t>
+  </si>
+  <si>
+    <t>Name D</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/ExcelReader.TwilightSaw/db.xlsx
+++ b/ExcelReader.TwilightSaw/db.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\projects\CodeReviews.Console.ExcelReader\ExcelReader.TwilightSaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640FF5E4-6A2D-450E-803A-FF6895833D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED303E6B-91E5-4A30-8886-2DC20975B79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="1095" windowWidth="21150" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="1725" windowWidth="21150" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chocolates" sheetId="1" r:id="rId1"/>
     <sheet name="Milk" sheetId="2" r:id="rId2"/>
+    <sheet name="Cheese" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,39 +27,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name D</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Dark Chocolate</t>
+  </si>
+  <si>
+    <t>SampleText</t>
+  </si>
+  <si>
+    <t>Milk Chocolate</t>
+  </si>
+  <si>
+    <t>Almond Milk Chocolate</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Milk Chocolate</t>
-  </si>
-  <si>
-    <t>Almond Milk Chocolate</t>
-  </si>
-  <si>
     <t>Milk 3,2%</t>
   </si>
   <si>
-    <t>Milk 2,0%</t>
-  </si>
-  <si>
-    <t>SampleText</t>
-  </si>
-  <si>
-    <t>Dark Chocolate</t>
-  </si>
-  <si>
-    <t>Name D</t>
+    <t>Milk 4.4%</t>
+  </si>
+  <si>
+    <t>Milk 2.0%</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>Cheddar</t>
   </si>
 </sst>
 </file>
@@ -382,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -393,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -407,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF5164F-A492-43ED-9521-66E18CDFC1C2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -478,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -492,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,13 +519,69 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>3.5</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E518BDEE-0AF1-46FD-AA11-8F3951458E70}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
